--- a/R_S_P/results/1_david_joao.xlsx
+++ b/R_S_P/results/1_david_joao.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>player1</t>
   </si>
@@ -35,7 +35,13 @@
     <t>winner_round</t>
   </si>
   <si>
-    <t>battle_number</t>
+    <t>b_p1</t>
+  </si>
+  <si>
+    <t>b_p2</t>
+  </si>
+  <si>
+    <t>repetition</t>
   </si>
   <si>
     <t>david</t>
@@ -44,16 +50,16 @@
     <t>joao</t>
   </si>
   <si>
-    <t>rock</t>
+    <t>r</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
   <si>
     <t>draw</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>scissor</t>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,7 +416,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,198 +438,246 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -632,64 +686,82 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
     </row>
